--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/Documents/OJT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24C53F-F32B-5147-8F9F-AE66374AFA00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED7D5A-4A0F-4E42-BF8E-90F55C558E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30800" yWindow="-2080" windowWidth="28800" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>User/Email</t>
   </si>
@@ -415,60 +415,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
-画像を１枚選択、[追加ボタン]をタップ、[メイン画面]に戻る
-[メイン画面]の[画像ビュー]に選択した画像が表示されていること</t>
-    <rPh sb="1" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="51" eb="56">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画像の取り込みのキャンセルができる</t>
     <rPh sb="0" eb="2">
       <t>ガゾウス</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
-[キャンセルボタン]をタップ、[メイン画面]に戻る
-[メイン画面]の初期画像上に「画像を選択してください」と表示されていること</t>
-    <rPh sb="12" eb="14">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウスル</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -478,41 +430,6 @@
       <t>ガゾウ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ホゾn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>写真の追加権限</t>
-    <rPh sb="0" eb="2">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[保存ボタン]をタップ
-カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホゾn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[保存ボタン]をタップ
-「カメラロールに保存できませんでした」とアラート表示されること</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="20" eb="22">
       <t>ホゾn</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -537,12 +454,6 @@
     <rPh sb="21" eb="23">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイン画面が開いている
-メイン画面に画像が表示されている
-写真の追加権限がある</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -666,7 +577,182 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>キャンセルボタンで編集を破棄する</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぼかし機能を利用する</t>
+    <rPh sb="0" eb="2">
+      <t>ボカシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モザイク機能を利用する</t>
+    <rPh sb="0" eb="2">
+      <t>モザイクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モノクロ機能を利用する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像形式はカメラロール上で確認できないため、PCに送って確認する</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニn</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オクッテ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
+画像を１枚選択、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]に選択した画像が表示されていること</t>
+    <rPh sb="1" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="44">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
+[キャンセルボタン]をタップ、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]上に「画像を選択してください」と表示されていること</t>
+    <rPh sb="12" eb="14">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウスル</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[起動画面]が表示される
+[メイン画面]が開き、[画像ビュー]上に「画像を選択してください」と表示される</t>
+    <rPh sb="1" eb="3">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブンダケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガゾウハジメルガメnヒョウハジメルムコウシャシnユウコウシャシnヒョウシャシnキョカシャシnユウコウイロハジメユウコウイチジョウホウユウコウイチジョウホウヒョウジサルキョカイチジョウホウユウコウンハイケイカワルハジメルガメnヒョウジサルヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時の写真追加許可</t>
+    <rPh sb="0" eb="5">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シャシンテゥ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">メイン画面が開いている
+メイン画面に画像が表示されている
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初回起動である
+メイン画面が開いている
+メイン画面に画像が表示されている
+</t>
+    <rPh sb="0" eb="4">
+      <t>ショカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時、アラートで写真追加許可を選択し保存できる</t>
+    <rPh sb="0" eb="1">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[OK]をタップ
+カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[OK]をタップ
 カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること
 編集前の画像形式と同じ画像形式で保存されていること</t>
     <rPh sb="1" eb="3">
@@ -689,6 +775,103 @@
     </rPh>
     <rPh sb="71" eb="73">
       <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[OK]をタップ
+「写真の追加権限を確認してください」とアラート表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画像の保存のキャンセルができる</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[キャンセル]をタップ
+カメラロールに画像が保存されず、[メイン画面]が表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ガゾウガ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時、アラートで写真追加許可をせずアラートが表示される</t>
+    <rPh sb="0" eb="1">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヲ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[OK]をタップ
+「端末に画像を保存します」とアラートを表示される
+[OK]をタップ
+カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること</t>
+    <rPh sb="13" eb="15">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[OK]をタップ
+「端末に画像を保存します」とアラートを表示される
+[許可しない]をタップ
+「写真の追加権限を確認してください」とアラート表示されること</t>
+    <rPh sb="13" eb="15">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キョカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -697,7 +880,7 @@
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がぼかし画像になること
 [スライダ]を動かすと、ぼかし度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、ぼかし画像が表示されていること</t>
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
@@ -731,7 +914,10 @@
     <rPh sb="128" eb="129">
       <t>モドリ</t>
     </rPh>
-    <rPh sb="137" eb="139">
+    <rPh sb="131" eb="133">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -741,7 +927,7 @@
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がぼかし画像になること
 [スライダ]を動かすと、ぼかし度合いが変化すること
-[キャンセルボタン]をタップすると、[メイン画面]に戻り、ぼかす前の画像が表示されていること</t>
+[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
@@ -772,29 +958,11 @@
     <rPh sb="131" eb="132">
       <t>モドリ</t>
     </rPh>
-    <rPh sb="142" eb="144">
+    <rPh sb="134" eb="136">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
       <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>キャンセルボタンで編集を破棄する</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ぼかし機能を利用する</t>
-    <rPh sb="0" eb="2">
-      <t>ボカシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モザイク機能を利用する</t>
-    <rPh sb="0" eb="2">
-      <t>モザイクキノウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -803,7 +971,7 @@
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がモザイク画像になること
 [スライダ]を動かすと、モザイク度合いが変化すること
-[キャンセルボタン]をタップすると、[メイン画面]に戻り、モザイクをかける前の画像が表示されていること</t>
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
@@ -831,10 +999,16 @@
     <rPh sb="101" eb="103">
       <t>ヘンカス</t>
     </rPh>
-    <rPh sb="134" eb="135">
+    <rPh sb="109" eb="111">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
       <t>モドリ</t>
     </rPh>
-    <rPh sb="150" eb="152">
+    <rPh sb="134" eb="136">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -844,7 +1018,7 @@
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がモザイク画像になること
 [スライダ]を動かすと、モザイク度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、モザイク画像が表示されていること</t>
+[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
@@ -872,19 +1046,15 @@
     <rPh sb="101" eb="103">
       <t>ヘンカス</t>
     </rPh>
-    <rPh sb="109" eb="111">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="131" eb="132">
+    <rPh sb="134" eb="135">
       <t>モドリ</t>
     </rPh>
-    <rPh sb="141" eb="143">
+    <rPh sb="137" eb="139">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モノクロ機能を利用する</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -892,7 +1062,7 @@
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がモノクロ画像になること
 [スライダ]を動かすと、モノクロ度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、モノクロ画像が表示されていること</t>
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
@@ -925,6 +1095,9 @@
     </rPh>
     <rPh sb="131" eb="132">
       <t>モドリ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="141" eb="143">
       <t>ヒョウ</t>
@@ -936,7 +1109,7 @@
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がモノクロ画像になること
 [スライダ]を動かすと、モノクロ度合いが変化すること
-[キャンセルボタン]をタップすると、[メイン画面]に戻り、モノクロにする前の画像が表示されていること</t>
+[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
@@ -967,78 +1140,11 @@
     <rPh sb="134" eb="135">
       <t>モドリ</t>
     </rPh>
-    <rPh sb="149" eb="151">
+    <rPh sb="137" eb="139">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
       <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[保存ボタン]をタップ
-「写真の追加を許可してください」とアラートを表示され、設定アプリの画面が表示されること</t>
-    <rPh sb="39" eb="41">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>写真の追加権限がない場合、設定アプリへ誘導できる</t>
-    <rPh sb="0" eb="1">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画像形式はカメラロール上で確認できないため、PCに送って確認する</t>
-    <rPh sb="0" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニn</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オクッテ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[起動画面]が表示される
-[メイン画面]が開き、初期画像が表示される
-初期画像上に「画像を選択してください」と表示される</t>
-    <rPh sb="1" eb="3">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ブンダケ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="35" eb="40">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガゾウハジメルガメnヒョウハジメルムコウシャシnユウコウシャシnヒョウシャシnキョカシャシnユウコウイロハジメユウコウイチジョウホウユウコウイチジョウホウヒョウジサルキョカイチジョウホウユウコウンハイケイカワルハジメルガメnヒョウジサルヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2944,7 +3050,7 @@
   </sheetPr>
   <dimension ref="B2:IT65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -3050,7 +3156,7 @@
       </c>
       <c r="C9" s="43">
         <f>COUNT('C 画像保存'!A:A)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="66"/>
       <c r="IO9" s="2"/>
@@ -3098,7 +3204,7 @@
       </c>
       <c r="C12" s="56">
         <f>SUM(C7:C11)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="66"/>
       <c r="IO12" s="2"/>
@@ -9202,7 +9308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971E529F-2AED-F246-A679-4B4F74669F54}">
   <dimension ref="A1:II6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -9269,13 +9375,13 @@
       <c r="F3" s="59"/>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="63">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="42">
       <c r="A4" s="19"/>
       <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="86"/>
@@ -9307,7 +9413,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9378,7 +9484,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -9392,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="82"/>
@@ -9406,7 +9512,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
@@ -9431,12 +9537,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8D5A92-A2EE-2748-9595-F511D53F12DC}">
-  <dimension ref="A1:II11"/>
+  <dimension ref="A1:II15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9493,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9501,13 +9607,13 @@
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="63">
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="105">
       <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -9519,7 +9625,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9527,18 +9633,18 @@
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="84">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="126">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="52" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G6" s="52"/>
     </row>
@@ -9547,7 +9653,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -9555,57 +9661,109 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="63">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="32">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="23">
+      <c r="A9" s="44">
+        <v>4</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="84">
+      <c r="A10" s="19"/>
+      <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="32">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A10" s="44">
+      <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="23">
+      <c r="A12" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="147">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-    </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="63">
-      <c r="A11" s="19"/>
-      <c r="B11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="52" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="23">
+      <c r="A14" s="44">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="126">
+      <c r="A15" s="19"/>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{5EA061F3-57F5-C143-BFB0-D3656BC6B90A}"/>
@@ -9630,7 +9788,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9674,7 +9832,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="79"/>
@@ -9687,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9698,10 +9856,10 @@
     <row r="4" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A4" s="19"/>
       <c r="B4" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
@@ -9713,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9724,10 +9882,10 @@
     <row r="6" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A6" s="19"/>
       <c r="B6" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
@@ -9739,7 +9897,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="79"/>
@@ -9752,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="80"/>
@@ -9763,10 +9921,10 @@
     <row r="9" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A9" s="19"/>
       <c r="B9" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -9778,7 +9936,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="80"/>
@@ -9789,10 +9947,10 @@
     <row r="11" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A11" s="19"/>
       <c r="B11" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="86"/>
@@ -9804,7 +9962,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="79"/>
@@ -9817,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="80"/>
@@ -9828,10 +9986,10 @@
     <row r="14" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A14" s="19"/>
       <c r="B14" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -9843,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="80"/>
@@ -9854,10 +10012,10 @@
     <row r="16" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A16" s="19"/>
       <c r="B16" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
@@ -9944,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9955,10 +10113,10 @@
     <row r="4" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -9970,7 +10128,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9981,10 +10139,10 @@
     <row r="6" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -9996,7 +10154,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -10007,10 +10165,10 @@
     <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -10043,6 +10201,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10198,22 +10371,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10229,21 +10404,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED7D5A-4A0F-4E42-BF8E-90F55C558E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EBBD3-2A79-6843-9EAD-6253D5ADA4A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29100" yWindow="-2080" windowWidth="25600" windowHeight="12760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>User/Email</t>
   </si>
@@ -484,13 +484,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Instagramアプリでログインしていない場合、アラートを表示する</t>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>メイン画面が開いている
 メイン画面に画像が表示されている
 Instagramアプリがインストールされていない</t>
@@ -503,16 +496,6 @@
     <rPh sb="28" eb="30">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[インスタ連携ボタン]をタップ
-「Instagramがインストールされていません」とアラート表示される</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[インスタ連携ボタン]をタップ
-Instagramアプリが開き、「Instagramにログインしてください」とアラート表示される</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -689,48 +672,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初回起動時の写真追加許可</t>
-    <rPh sb="0" eb="5">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>シャシンテゥ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">メイン画面が開いている
 メイン画面に画像が表示されている
 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">初回起動である
-メイン画面が開いている
-メイン画面に画像が表示されている
-</t>
-    <rPh sb="0" eb="4">
-      <t>ショカイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>初回起動時、アラートで写真追加許可を選択し保存できる</t>
-    <rPh sb="0" eb="1">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -827,55 +771,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初回起動時、アラートで写真追加許可をせずアラートが表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヲ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[保存ボタン]をタップ
-「この画像を保存しますか？」とアラート表示される
-[OK]をタップ
-「端末に画像を保存します」とアラートを表示される
-[OK]をタップ
-カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること</t>
-    <rPh sb="13" eb="15">
-      <t>タンマテゥ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[保存ボタン]をタップ
-「この画像を保存しますか？」とアラート表示される
-[OK]をタップ
-「端末に画像を保存します」とアラートを表示される
-[許可しない]をタップ
-「写真の追加権限を確認してください」とアラート表示されること</t>
-    <rPh sb="13" eb="15">
-      <t>タンマテゥ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[編集機能ボタン（ぼかし）]をタップ
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がぼかし画像になること
@@ -1145,6 +1040,182 @@
     </rPh>
     <rPh sb="144" eb="146">
       <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[インスタ連携ボタン]をタップ
+「アプリがインストールされていません」とアラート表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Instagramアプリでログインしていない場合、Instagramに遷移後アラート表示される</t>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[インスタ連携ボタン]をタップ
+Instagramアプリが開き、「ファイルを開けませんでした。ログインしてください。」とアラート表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">初回起動である
+メイン画面が開いている
+</t>
+    <rPh sb="0" eb="4">
+      <t>ショカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時の写真アクセス許可</t>
+    <rPh sb="0" eb="5">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャシンテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時、「すべての写真へのアクセスを許可」を選択し、画像の取り込みができる</t>
+    <rPh sb="0" eb="1">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[画像取り込みボタン]をタップ
+「すべての写真へのアクセスを許可してください」とアラート表示される
+[すべての写真へのアクセスを許可]をタップ、[画像選択画面]が表示される
+画像を１枚選択、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]に選択した画像が表示されていること
+</t>
+    <rPh sb="13" eb="15">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時、「写真を選択…」を選択し、設定アプリに誘導できる</t>
+    <rPh sb="0" eb="1">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ
+「すべての写真へのアクセスを許可してください」とアラート表示される
+[許可しない]をタップ
+「すべての写真を許可してください」とアラート表示される
+[設定]をタップ、設定アプリのInstaExtのページに遷移すること</t>
+    <rPh sb="13" eb="15">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>_x0000__x000D__x0002__x0005_</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>1_x0002__x0008_3</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>_x0002__x000B_[_x0002_</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ
+「すべての写真へのアクセスを許可してください」とアラート表示される
+[写真を選択…]をタップ、[画像選択画面]が表示される
+任意の枚数の画像を選択、[完了]ボタンをタップ
+「すべての写真を許可してください」とアラート表示される
+[設定]をタップ、設定アプリのInstaExtのページに遷移すること</t>
+    <rPh sb="13" eb="15">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニンイノ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>_x0000__x000D__x0002__x0005_</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>1_x0002__x0008_N</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>_x0002__x000C_[_x0002_</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時、「許可しない」を選択し、設定アプリに誘導できる</t>
+    <rPh sb="0" eb="1">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユウドウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3050,7 +3121,7 @@
   </sheetPr>
   <dimension ref="B2:IT65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -3140,7 +3211,7 @@
       </c>
       <c r="C8" s="43">
         <f>COUNT('B 画像取り込み'!A:A)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="63"/>
       <c r="IO8" s="2"/>
@@ -3156,7 +3227,7 @@
       </c>
       <c r="C9" s="43">
         <f>COUNT('C 画像保存'!A:A)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="66"/>
       <c r="IO9" s="2"/>
@@ -3204,7 +3275,7 @@
       </c>
       <c r="C12" s="56">
         <f>SUM(C7:C11)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="66"/>
       <c r="IO12" s="2"/>
@@ -9381,7 +9452,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="86"/>
@@ -9408,12 +9479,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C003A1-8513-024C-B26C-674BCF165883}">
-  <dimension ref="A1:II6"/>
+  <dimension ref="A1:II13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9484,7 +9555,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -9512,18 +9583,109 @@
         <v>55</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
     </row>
+    <row r="7" spans="1:10" ht="32">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:10" ht="23">
+      <c r="A8" s="44">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" ht="126">
+      <c r="A9" s="19"/>
+      <c r="B9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" ht="23">
+      <c r="A10" s="44">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" ht="126">
+      <c r="A11" s="19"/>
+      <c r="B11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="23">
+      <c r="A12" s="44">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:10" ht="105">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F1" xr:uid="{472A2A42-BEB0-3F45-ABFC-18D6B241C59A}"/>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D1048576 D1:D6" xr:uid="{5BC8FA2B-7549-CC43-AE8A-8BA7FB255350}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{5BC8FA2B-7549-CC43-AE8A-8BA7FB255350}">
       <formula1>"o,x,-,n/a"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9540,9 +9702,9 @@
   <dimension ref="A1:II15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9599,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9613,7 +9775,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -9625,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9636,15 +9798,15 @@
     <row r="6" spans="1:7" s="10" customFormat="1" ht="126">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" s="52"/>
     </row>
@@ -9667,7 +9829,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -9679,7 +9841,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="80"/>
@@ -9690,86 +9852,26 @@
     <row r="10" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A10" s="19"/>
       <c r="B10" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="32">
-      <c r="A11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A12" s="44">
-        <v>1</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="147">
-      <c r="A13" s="19"/>
-      <c r="B13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A14" s="44">
-        <v>2</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="126">
-      <c r="A15" s="19"/>
-      <c r="B15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="17"/>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="23"/>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="23"/>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="23"/>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="23"/>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{5EA061F3-57F5-C143-BFB0-D3656BC6B90A}"/>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EF96B726-DD29-1743-92A4-0513D5FACD77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D16:D1048576" xr:uid="{EF96B726-DD29-1743-92A4-0513D5FACD77}">
       <formula1>"o,x,-,n/a"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9832,7 +9934,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="79"/>
@@ -9845,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9856,10 +9958,10 @@
     <row r="4" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A4" s="19"/>
       <c r="B4" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
@@ -9871,7 +9973,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9882,10 +9984,10 @@
     <row r="6" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A6" s="19"/>
       <c r="B6" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
@@ -9897,7 +9999,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="79"/>
@@ -9910,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="80"/>
@@ -9921,10 +10023,10 @@
     <row r="9" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A9" s="19"/>
       <c r="B9" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -9936,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="80"/>
@@ -9947,10 +10049,10 @@
     <row r="11" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A11" s="19"/>
       <c r="B11" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="86"/>
@@ -9962,7 +10064,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="79"/>
@@ -9975,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="80"/>
@@ -9986,10 +10088,10 @@
     <row r="14" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A14" s="19"/>
       <c r="B14" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -10001,7 +10103,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="80"/>
@@ -10012,10 +10114,10 @@
     <row r="16" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A16" s="19"/>
       <c r="B16" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
@@ -10042,10 +10144,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FCA595-0DED-9F4B-A8DE-B6A66B444F34}">
   <dimension ref="A1:II12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -10139,10 +10241,10 @@
     <row r="6" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -10154,7 +10256,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -10165,10 +10267,10 @@
     <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -10201,18 +10303,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10372,18 +10474,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EBBD3-2A79-6843-9EAD-6253D5ADA4A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FA4EDBCF-C337-9C45-8DE3-52C5259DEBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29100" yWindow="-2080" windowWidth="25600" windowHeight="12760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E インスタ連携'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>User/Email</t>
   </si>
@@ -425,16 +426,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像の保存に失敗した際、アラートを表示する</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホゾn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Instagramアプリに画像を渡すことができる</t>
     <rPh sb="13" eb="15">
       <t>ガゾウ</t>
@@ -454,12 +445,6 @@
     <rPh sb="21" eb="23">
       <t>ヒョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイン画面が開いている
-メイン画面に画像が表示されている
-写真の追加権限がない</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -723,22 +708,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[保存ボタン]をタップ
-「この画像を保存しますか？」とアラート表示される
-[OK]をタップ
-「写真の追加権限を確認してください」とアラート表示されること</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画像の保存のキャンセルができる</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -1117,28 +1086,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初回起動時、「写真を選択…」を選択し、設定アプリに誘導できる</t>
-    <rPh sb="0" eb="1">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ユウドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[画像取り込みボタン]をタップ
 「すべての写真へのアクセスを許可してください」とアラート表示される
 [許可しない]をタップ
@@ -1154,49 +1101,7 @@
       <t>キョカ</t>
     </rPh>
     <rPh sb="91" eb="93">
-      <t>_x0000__x000D__x0002__x0005_</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>1_x0002__x0008_3</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>_x0002__x000B_[_x0002_</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[画像取り込みボタン]をタップ
-「すべての写真へのアクセスを許可してください」とアラート表示される
-[写真を選択…]をタップ、[画像選択画面]が表示される
-任意の枚数の画像を選択、[完了]ボタンをタップ
-「すべての写真を許可してください」とアラート表示される
-[設定]をタップ、設定アプリのInstaExtのページに遷移すること</t>
-    <rPh sb="13" eb="15">
-      <t>タンマテゥ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニンイノ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>_x0000__x000D__x0002__x0005_</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>1_x0002__x0008_N</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>_x0002__x000C_[_x0002_</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t/>
+      <t>_x0000__x000D__x0002__x0005_1_x0002__x0008_3_x0002__x000B_[_x0002_</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1216,6 +1121,68 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回起動時、「写真を選択…」を選択し、画像の取り込みができる</t>
+    <rPh sb="0" eb="1">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ
+「すべての写真へのアクセスを許可してください」とアラート表示される
+[写真を選択…]をタップ、[アクセス許可画像選択画面]が表示される
+任意の枚数の画像を選択、[完了]ボタンをタップ、[画像選択画面]が表示される
+画像を１枚選択、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]に選択した画像が表示されていること</t>
+    <rPh sb="13" eb="15">
+      <t>タンマテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ニンイノ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>_x0000__x000D__x0002__x0005_1_x0002__x0008_N_x0002__x000C_[_x0002_</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[アクセス許可画像選択画面]で選択した画像は使う場面無し</t>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカウブ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3227,7 +3194,7 @@
       </c>
       <c r="C9" s="43">
         <f>COUNT('C 画像保存'!A:A)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="66"/>
       <c r="IO9" s="2"/>
@@ -3275,7 +3242,7 @@
       </c>
       <c r="C12" s="56">
         <f>SUM(C7:C11)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="66"/>
       <c r="IO12" s="2"/>
@@ -9452,7 +9419,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="86"/>
@@ -9481,10 +9448,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C003A1-8513-024C-B26C-674BCF165883}">
   <dimension ref="A1:II13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9555,7 +9522,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -9583,7 +9550,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
@@ -9595,7 +9562,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="79"/>
@@ -9608,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="80"/>
@@ -9619,10 +9586,10 @@
     <row r="9" spans="1:10" ht="126">
       <c r="A9" s="19"/>
       <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>100</v>
       </c>
       <c r="D9" s="85"/>
       <c r="E9" s="85"/>
@@ -9634,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="80"/>
@@ -9645,14 +9612,16 @@
     <row r="11" spans="1:10" ht="126">
       <c r="A11" s="19"/>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
-      <c r="F11" s="52"/>
+      <c r="F11" s="52" t="s">
+        <v>102</v>
+      </c>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="23">
@@ -9660,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="80"/>
@@ -9671,10 +9640,10 @@
     <row r="13" spans="1:10" ht="105">
       <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
@@ -9699,12 +9668,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8D5A92-A2EE-2748-9595-F511D53F12DC}">
-  <dimension ref="A1:II15"/>
+  <dimension ref="A1:II13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:G15"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9761,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9772,10 +9741,10 @@
     <row r="4" spans="1:7" s="10" customFormat="1" ht="105">
       <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -9787,7 +9756,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9798,15 +9767,15 @@
     <row r="6" spans="1:7" s="10" customFormat="1" ht="126">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="52"/>
     </row>
@@ -9815,7 +9784,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -9826,52 +9795,26 @@
     <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A9" s="44">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="84">
-      <c r="A10" s="19"/>
-      <c r="B10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="17"/>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="17"/>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="23"/>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="23"/>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="23"/>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="23"/>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="23"/>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="23"/>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{5EA061F3-57F5-C143-BFB0-D3656BC6B90A}"/>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D16:D1048576" xr:uid="{EF96B726-DD29-1743-92A4-0513D5FACD77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D1048576 D1:D8" xr:uid="{EF96B726-DD29-1743-92A4-0513D5FACD77}">
       <formula1>"o,x,-,n/a"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9934,7 +9877,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="79"/>
@@ -9947,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -9958,10 +9901,10 @@
     <row r="4" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A4" s="19"/>
       <c r="B4" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
@@ -9973,7 +9916,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -9984,10 +9927,10 @@
     <row r="6" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A6" s="19"/>
       <c r="B6" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
@@ -9999,7 +9942,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="79"/>
@@ -10012,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="80"/>
@@ -10023,10 +9966,10 @@
     <row r="9" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A9" s="19"/>
       <c r="B9" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -10038,7 +9981,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="80"/>
@@ -10049,10 +9992,10 @@
     <row r="11" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A11" s="19"/>
       <c r="B11" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="86"/>
@@ -10064,7 +10007,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="79"/>
@@ -10077,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="80"/>
@@ -10088,10 +10031,10 @@
     <row r="14" spans="1:7" s="14" customFormat="1" ht="105">
       <c r="A14" s="19"/>
       <c r="B14" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -10103,7 +10046,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="80"/>
@@ -10114,10 +10057,10 @@
     <row r="16" spans="1:7" s="14" customFormat="1" ht="126">
       <c r="A16" s="19"/>
       <c r="B16" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
@@ -10144,7 +10087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FCA595-0DED-9F4B-A8DE-B6A66B444F34}">
   <dimension ref="A1:II12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
@@ -10204,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="80"/>
@@ -10215,10 +10158,10 @@
     <row r="4" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -10230,7 +10173,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="80"/>
@@ -10241,10 +10184,10 @@
     <row r="6" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -10256,7 +10199,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -10267,10 +10210,10 @@
     <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -10309,15 +10252,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10473,6 +10407,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
   <ds:schemaRefs>
@@ -10483,14 +10426,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10506,4 +10441,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FA4EDBCF-C337-9C45-8DE3-52C5259DEBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C465B2-40F4-334F-BD51-8325BA46BD48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E インスタ連携'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>User/Email</t>
   </si>
@@ -611,21 +610,6 @@
       <t>センタク</t>
     </rPh>
     <rPh sb="70" eb="72">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
-[キャンセルボタン]をタップ、[メイン画面]に戻る
-[メイン画面]の[画像ビュー]上に「画像を選択してください」と表示されていること</t>
-    <rPh sb="12" eb="14">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウスル</t>
-    </rPh>
-    <rPh sb="66" eb="68">
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -714,28 +698,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ホゾn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[保存ボタン]をタップ
-「この画像を保存しますか？」とアラート表示される
-[キャンセル]をタップ
-カメラロールに画像が保存されず、[メイン画面]が表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャシn</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ガゾウガ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1183,6 +1145,167 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ツカウブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2枚目の画像の取り込み時、確認アラートが表示された後、画像の取り込みができる</t>
+    <rPh sb="1" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ノチ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガゾウノトル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイン画面が開いている
+メイン画面に画像が表示されている</t>
+    <rPh sb="15" eb="17">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2枚目の画像の取り込み時、確認アラートでキャンセルができる</t>
+    <rPh sb="1" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[CANCEL]をタップ
+カメラロールに画像が保存されず、[メイン画面]が表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャシn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガゾウガ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
+[キャンセル]をタップ、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]上に「画像を選択してください」と表示されていること</t>
+    <rPh sb="12" eb="14">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウスル</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ
+「編集中画像を破棄してもよろしいですか？」とアラート表示される
+[OK]をタップ、[画像選択画面]が表示される
+画像を１枚選択、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]に選択した画像が表示されていること</t>
+    <rPh sb="1" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハキセィ</t>
+    </rPh>
+    <rPh sb="47" eb="59">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="77" eb="82">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[画像取り込みボタン]をタップ
+「編集中画像を破棄してもよろしいですか？」とアラート表示される
+[CANCEL]をタップ、[メイン画面]に戻る
+[メイン画面]の[画像ビュー]に[画像取り込みボタン]タップ前の画像が表示されていること</t>
+    <rPh sb="1" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハキセィ</t>
+    </rPh>
+    <rPh sb="47" eb="61">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>セン_x0000__x0001_</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t/>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3178,7 +3301,7 @@
       </c>
       <c r="C8" s="43">
         <f>COUNT('B 画像取り込み'!A:A)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="63"/>
       <c r="IO8" s="2"/>
@@ -3242,7 +3365,7 @@
       </c>
       <c r="C12" s="56">
         <f>SUM(C7:C11)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="66"/>
       <c r="IO12" s="2"/>
@@ -9346,7 +9469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971E529F-2AED-F246-A679-4B4F74669F54}">
   <dimension ref="A1:II6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -9419,7 +9542,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="86"/>
@@ -9446,12 +9569,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C003A1-8513-024C-B26C-674BCF165883}">
-  <dimension ref="A1:II13"/>
+  <dimension ref="A1:II17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9550,86 +9673,86 @@
         <v>55</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
     </row>
-    <row r="7" spans="1:10" ht="32">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" s="48">
+        <f>A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" ht="105">
+      <c r="A8" s="50"/>
+      <c r="B8" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" s="48">
+        <f>A7+1</f>
+        <v>4</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" ht="84">
+      <c r="A10" s="50"/>
+      <c r="B10" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:10" ht="23">
-      <c r="A8" s="44">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:10" ht="126">
-      <c r="A9" s="19"/>
-      <c r="B9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" ht="23">
-      <c r="A10" s="44">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-    </row>
-    <row r="11" spans="1:10" ht="126">
-      <c r="A11" s="19"/>
-      <c r="B11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="52"/>
+      <c r="B11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:10" ht="23">
       <c r="A12" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="80"/>
@@ -9637,18 +9760,72 @@
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
     </row>
-    <row r="13" spans="1:10" ht="105">
+    <row r="13" spans="1:10" ht="126">
       <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" ht="23">
+      <c r="A14" s="44">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" ht="126">
+      <c r="A15" s="19"/>
+      <c r="B15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" ht="23">
+      <c r="A16" s="44">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="105">
+      <c r="A17" s="19"/>
+      <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F1" xr:uid="{472A2A42-BEB0-3F45-ABFC-18D6B241C59A}"/>
@@ -9673,7 +9850,7 @@
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9744,7 +9921,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -9770,7 +9947,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -9784,7 +9961,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -9795,10 +9972,10 @@
     <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -9904,7 +10081,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
@@ -9930,7 +10107,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
@@ -9969,7 +10146,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -9995,7 +10172,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="86"/>
@@ -10034,7 +10211,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -10060,7 +10237,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
@@ -10187,7 +10364,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -10199,7 +10376,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -10213,7 +10390,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -10246,12 +10423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10407,6 +10578,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10417,15 +10594,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10443,6 +10611,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
   <ds:schemaRefs>

--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C465B2-40F4-334F-BD51-8325BA46BD48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6687FAA-609C-EE41-B6E0-28B598925120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
   <si>
     <t>User/Email</t>
   </si>
@@ -569,22 +569,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画像形式はカメラロール上で確認できないため、PCに送って確認する</t>
-    <rPh sb="0" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニn</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オクッテ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[画像取り込みボタン]をタップ、[画像選択画面]が表示される
 画像を１枚選択、[メイン画面]に戻る
 [メイン画面]の[画像ビュー]に選択した画像が表示されていること</t>
@@ -663,35 +647,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[保存ボタン]をタップ
-「この画像を保存しますか？」とアラート表示される
-[OK]をタップ
-カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること
-編集前の画像形式と同じ画像形式で保存されていること</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オナジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ホゾn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画像の保存のキャンセルができる</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -1306,6 +1261,43 @@
     </rPh>
     <rPh sb="102" eb="103">
       <t/>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[保存ボタン]をタップ
+「この画像を保存しますか？」とアラート表示される
+[OK]をタップ
+カメラロールに画像が保存され、「カメラロールに保存しました」とアラート表示されること
+画像が以下の形式で保存されていること
+・JPG, HEIC, PVT→JPG
+・PNG→PNG</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>イカノ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ケイシキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -9469,7 +9461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971E529F-2AED-F246-A679-4B4F74669F54}">
   <dimension ref="A1:II6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -9542,7 +9534,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="86"/>
@@ -9645,7 +9637,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -9673,7 +9665,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="83"/>
       <c r="E6" s="83"/>
@@ -9686,7 +9678,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="82"/>
@@ -9697,10 +9689,10 @@
     <row r="8" spans="1:10" ht="105">
       <c r="A8" s="50"/>
       <c r="B8" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
@@ -9713,7 +9705,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="82"/>
@@ -9724,10 +9716,10 @@
     <row r="10" spans="1:10" ht="84">
       <c r="A10" s="50"/>
       <c r="B10" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="83"/>
@@ -9739,7 +9731,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="79"/>
@@ -9752,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="80"/>
@@ -9763,10 +9755,10 @@
     <row r="13" spans="1:10" ht="126">
       <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
@@ -9778,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="80"/>
@@ -9789,15 +9781,15 @@
     <row r="15" spans="1:10" ht="126">
       <c r="A15" s="19"/>
       <c r="B15" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" s="52"/>
     </row>
@@ -9806,7 +9798,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="80"/>
@@ -9817,10 +9809,10 @@
     <row r="17" spans="1:7" ht="105">
       <c r="A17" s="19"/>
       <c r="B17" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
@@ -9850,7 +9842,7 @@
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9921,7 +9913,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>
@@ -9941,19 +9933,17 @@
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="126">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="168">
       <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
-      <c r="F6" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="F6" s="52"/>
       <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="23">
@@ -9961,7 +9951,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -9972,10 +9962,10 @@
     <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
       <c r="A8" s="19"/>
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -10007,7 +9997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C667D84-4B59-CC45-8230-4F79DB1549A9}">
   <dimension ref="A1:II16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
@@ -10081,7 +10071,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="86"/>
@@ -10107,7 +10097,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
@@ -10146,7 +10136,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -10172,7 +10162,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="86"/>
@@ -10211,7 +10201,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="86"/>
       <c r="E14" s="86"/>
@@ -10237,7 +10227,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="86"/>
       <c r="E16" s="86"/>
@@ -10364,7 +10354,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -10376,7 +10366,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="80"/>
@@ -10390,7 +10380,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -10423,6 +10413,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10578,12 +10574,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10594,6 +10584,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10611,15 +10610,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
   <ds:schemaRefs>

--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6687FAA-609C-EE41-B6E0-28B598925120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00845F75-0D06-304E-A2A8-1B27C39CDB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -43,22 +43,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
-  <si>
-    <t>User/Email</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>全項目</t>
   </si>
   <si>
     <t>＃</t>
-  </si>
-  <si>
-    <t>テストユーザ</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>使用する表記</t>
@@ -293,14 +283,14 @@
     <rPh sb="0" eb="2">
       <t>ジッセィ</t>
     </rPh>
-    <phoneticPr fontId="33"/>
+    <phoneticPr fontId="30"/>
   </si>
   <si>
     <t>NGシナリオ数</t>
     <rPh sb="6" eb="7">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="33"/>
+    <phoneticPr fontId="30"/>
   </si>
   <si>
     <t>デバイス表示(light/dark)</t>
@@ -321,10 +311,6 @@
   </si>
   <si>
     <t>E インスタ連携</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Instagram</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -398,7 +384,7 @@
   </si>
   <si>
     <t>インスタ連携</t>
-    <phoneticPr fontId="23"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>画像の取り込みができる</t>
@@ -1306,7 +1292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1333,14 +1319,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W6"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -1350,14 +1328,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
       <family val="2"/>
@@ -1479,12 +1449,6 @@
       <name val="Kozuka Gothic Pr6N B"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFE3E3E3"/>
-      <name val="Consolas"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1713,7 +1677,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1723,182 +1687,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1909,101 +1846,95 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3201,10 +3132,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:IT65"/>
+  <dimension ref="B2:IT61"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="23" customHeight="1"/>
@@ -3219,40 +3150,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:254" ht="77">
-      <c r="B2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:254" ht="18">
-      <c r="B3" s="77"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:254" ht="31" customHeight="1">
-      <c r="B4" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="B4" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B5" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>2</v>
+      <c r="B5" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>0</v>
       </c>
       <c r="IO5" s="2"/>
       <c r="IP5" s="2"/>
@@ -3262,8 +3193,8 @@
       <c r="IT5" s="2"/>
     </row>
     <row r="6" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="IO6" s="2"/>
       <c r="IP6" s="2"/>
       <c r="IQ6" s="2"/>
@@ -3272,14 +3203,14 @@
       <c r="IT6" s="2"/>
     </row>
     <row r="7" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B7" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="B7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="32">
         <f>COUNT('A アプリ起動'!A:A)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="52"/>
       <c r="IO7" s="2"/>
       <c r="IP7" s="2"/>
       <c r="IQ7" s="2"/>
@@ -3288,14 +3219,14 @@
       <c r="IT7" s="2"/>
     </row>
     <row r="8" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="43">
+      <c r="B8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="32">
         <f>COUNT('B 画像取り込み'!A:A)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="51"/>
       <c r="IO8" s="2"/>
       <c r="IP8" s="2"/>
       <c r="IQ8" s="2"/>
@@ -3304,14 +3235,14 @@
       <c r="IT8" s="2"/>
     </row>
     <row r="9" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B9" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="43">
+      <c r="B9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="32">
         <f>COUNT('C 画像保存'!A:A)</f>
         <v>3</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="54"/>
       <c r="IO9" s="2"/>
       <c r="IP9" s="2"/>
       <c r="IQ9" s="2"/>
@@ -3320,15 +3251,15 @@
       <c r="IT9" s="2"/>
     </row>
     <row r="10" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B10" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="B10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="32">
         <f>COUNT('D 編集'!A:A)</f>
         <v>6</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="IO10" s="2"/>
       <c r="IP10" s="2"/>
       <c r="IQ10" s="2"/>
@@ -3337,10 +3268,10 @@
       <c r="IT10" s="2"/>
     </row>
     <row r="11" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B11" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="43">
+      <c r="B11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="32">
         <f>COUNT('E インスタ連携'!A:A)</f>
         <v>3</v>
       </c>
@@ -3352,14 +3283,14 @@
       <c r="IT11" s="2"/>
     </row>
     <row r="12" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B12" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="56">
+      <c r="B12" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="45">
         <f>SUM(C7:C11)</f>
         <v>20</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="54"/>
       <c r="IO12" s="2"/>
       <c r="IP12" s="2"/>
       <c r="IQ12" s="2"/>
@@ -3367,339 +3298,286 @@
       <c r="IS12" s="2"/>
       <c r="IT12" s="2"/>
     </row>
-    <row r="13" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+    <row r="13" spans="2:254" ht="23" customHeight="1">
       <c r="E13" s="3"/>
-      <c r="J13" s="66"/>
-    </row>
-    <row r="14" spans="2:254" ht="32">
-      <c r="B14" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-    </row>
-    <row r="15" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-    </row>
-    <row r="16" spans="2:254" ht="18.25" customHeight="1">
-      <c r="B16" s="39" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:254" ht="31" customHeight="1">
+      <c r="B14" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="2:254" ht="23" customHeight="1">
+      <c r="B15" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="2:254" ht="23" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="2:254" ht="23" customHeight="1">
+      <c r="B17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="2:254" ht="23" customHeight="1">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:254" ht="31" customHeight="1">
-      <c r="B18" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="2:254" ht="23" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="61"/>
+    </row>
+    <row r="18" spans="2:254" ht="15" customHeight="1">
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="73"/>
+      <c r="C18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:254" ht="19">
+      <c r="B19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:254" ht="23" customHeight="1">
-      <c r="B20" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="73"/>
-    </row>
-    <row r="21" spans="2:254" ht="23" customHeight="1">
-      <c r="B21" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="73"/>
-    </row>
-    <row r="22" spans="2:254" ht="15" customHeight="1">
-      <c r="B22" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="35" t="s">
+      <c r="B20" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="2:254" ht="19">
-      <c r="B23" s="34" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:254" ht="23" customHeight="1">
-      <c r="B24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:254" ht="16">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:254" ht="16">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="IR21" s="2"/>
+      <c r="IS21" s="2"/>
+      <c r="IT21" s="2"/>
+    </row>
+    <row r="22" spans="2:254" ht="16">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="IR22" s="2"/>
+      <c r="IS22" s="2"/>
+      <c r="IT22" s="2"/>
+    </row>
+    <row r="23" spans="2:254" ht="16">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="IR23" s="2"/>
+      <c r="IS23" s="2"/>
+      <c r="IT23" s="2"/>
+    </row>
+    <row r="24" spans="2:254" ht="15" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="IR24" s="2"/>
+      <c r="IS24" s="2"/>
+      <c r="IT24" s="2"/>
+    </row>
+    <row r="25" spans="2:254" ht="31" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="IR25" s="2"/>
       <c r="IS25" s="2"/>
       <c r="IT25" s="2"/>
     </row>
-    <row r="26" spans="2:254" ht="16">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+    <row r="26" spans="2:254" ht="23" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="IR26" s="2"/>
       <c r="IS26" s="2"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="2:254" ht="16">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="IR27" s="2"/>
       <c r="IS27" s="2"/>
       <c r="IT27" s="2"/>
     </row>
-    <row r="28" spans="2:254" ht="15" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+    <row r="28" spans="2:254" ht="16">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="IR28" s="2"/>
       <c r="IS28" s="2"/>
       <c r="IT28" s="2"/>
     </row>
-    <row r="29" spans="2:254" ht="31" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+    <row r="29" spans="2:254" ht="16">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="IR29" s="2"/>
       <c r="IS29" s="2"/>
       <c r="IT29" s="2"/>
     </row>
-    <row r="30" spans="2:254" ht="23" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+    <row r="30" spans="2:254" ht="16">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="IR30" s="2"/>
       <c r="IS30" s="2"/>
       <c r="IT30" s="2"/>
     </row>
     <row r="31" spans="2:254" ht="16">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
       <c r="IR31" s="2"/>
       <c r="IS31" s="2"/>
       <c r="IT31" s="2"/>
     </row>
     <row r="32" spans="2:254" ht="16">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
       <c r="IR32" s="2"/>
       <c r="IS32" s="2"/>
       <c r="IT32" s="2"/>
     </row>
-    <row r="33" spans="2:254" ht="16">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+    <row r="33" spans="252:254" ht="16">
       <c r="IR33" s="2"/>
       <c r="IS33" s="2"/>
       <c r="IT33" s="2"/>
     </row>
-    <row r="34" spans="2:254" ht="16">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+    <row r="34" spans="252:254" ht="16">
       <c r="IR34" s="2"/>
       <c r="IS34" s="2"/>
       <c r="IT34" s="2"/>
     </row>
-    <row r="35" spans="2:254" ht="16">
+    <row r="35" spans="252:254" ht="16">
       <c r="IR35" s="2"/>
       <c r="IS35" s="2"/>
       <c r="IT35" s="2"/>
     </row>
-    <row r="36" spans="2:254" ht="16">
+    <row r="36" spans="252:254" ht="16">
       <c r="IR36" s="2"/>
       <c r="IS36" s="2"/>
       <c r="IT36" s="2"/>
     </row>
-    <row r="37" spans="2:254" ht="16">
+    <row r="37" spans="252:254" ht="16">
       <c r="IR37" s="2"/>
       <c r="IS37" s="2"/>
       <c r="IT37" s="2"/>
     </row>
-    <row r="38" spans="2:254" ht="16">
+    <row r="38" spans="252:254" ht="16">
       <c r="IR38" s="2"/>
       <c r="IS38" s="2"/>
       <c r="IT38" s="2"/>
     </row>
-    <row r="39" spans="2:254" ht="16">
+    <row r="39" spans="252:254" ht="16">
       <c r="IR39" s="2"/>
       <c r="IS39" s="2"/>
       <c r="IT39" s="2"/>
     </row>
-    <row r="40" spans="2:254" ht="16">
+    <row r="40" spans="252:254" ht="16">
       <c r="IR40" s="2"/>
       <c r="IS40" s="2"/>
       <c r="IT40" s="2"/>
     </row>
-    <row r="41" spans="2:254" ht="16">
+    <row r="41" spans="252:254" ht="16">
       <c r="IR41" s="2"/>
       <c r="IS41" s="2"/>
       <c r="IT41" s="2"/>
     </row>
-    <row r="42" spans="2:254" ht="16">
+    <row r="42" spans="252:254" ht="16">
       <c r="IR42" s="2"/>
       <c r="IS42" s="2"/>
       <c r="IT42" s="2"/>
     </row>
-    <row r="43" spans="2:254" ht="16">
+    <row r="43" spans="252:254" ht="16">
       <c r="IR43" s="2"/>
       <c r="IS43" s="2"/>
       <c r="IT43" s="2"/>
     </row>
-    <row r="44" spans="2:254" ht="16">
+    <row r="44" spans="252:254" ht="16">
       <c r="IR44" s="2"/>
       <c r="IS44" s="2"/>
       <c r="IT44" s="2"/>
     </row>
-    <row r="45" spans="2:254" ht="16">
-      <c r="IR45" s="2"/>
-      <c r="IS45" s="2"/>
-      <c r="IT45" s="2"/>
-    </row>
-    <row r="46" spans="2:254" ht="16">
-      <c r="IR46" s="2"/>
-      <c r="IS46" s="2"/>
-      <c r="IT46" s="2"/>
-    </row>
-    <row r="47" spans="2:254" ht="16">
-      <c r="IR47" s="2"/>
-      <c r="IS47" s="2"/>
-      <c r="IT47" s="2"/>
-    </row>
-    <row r="48" spans="2:254" ht="16">
-      <c r="IR48" s="2"/>
-      <c r="IS48" s="2"/>
-      <c r="IT48" s="2"/>
-    </row>
+    <row r="45" spans="252:254" ht="16"/>
+    <row r="46" spans="252:254" ht="16"/>
+    <row r="47" spans="252:254" ht="16"/>
+    <row r="48" spans="252:254" ht="16"/>
     <row r="49" ht="16"/>
     <row r="50" ht="16"/>
     <row r="51" ht="16"/>
@@ -3707,19 +3585,15 @@
     <row r="53" ht="16"/>
     <row r="54" ht="16"/>
     <row r="55" ht="16"/>
-    <row r="56" ht="16"/>
-    <row r="57" ht="16"/>
-    <row r="58" ht="16"/>
-    <row r="59" ht="16"/>
+    <row r="56" ht="19" customHeight="1"/>
+    <row r="57" ht="19" customHeight="1"/>
+    <row r="58" ht="19" customHeight="1"/>
+    <row r="59" ht="19" customHeight="1"/>
     <row r="60" ht="19" customHeight="1"/>
     <row r="61" ht="19" customHeight="1"/>
-    <row r="62" ht="19" customHeight="1"/>
-    <row r="63" ht="19" customHeight="1"/>
-    <row r="64" ht="19" customHeight="1"/>
-    <row r="65" ht="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -3737,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD45406-1D01-5D43-8A09-280ECE89980C}">
   <dimension ref="B2:IU23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3749,11 +3623,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B2" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="88"/>
+      <c r="B2" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4007,11 +3881,11 @@
       <c r="IU2" s="1"/>
     </row>
     <row r="3" spans="2:255" s="2" customFormat="1" ht="19">
-      <c r="B3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4265,11 +4139,11 @@
       <c r="IU3" s="1"/>
     </row>
     <row r="4" spans="2:255" s="2" customFormat="1" ht="19">
-      <c r="B4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4523,16 +4397,16 @@
       <c r="IU4" s="1"/>
     </row>
     <row r="5" spans="2:255" s="2" customFormat="1" ht="19">
-      <c r="B5" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4781,16 +4655,16 @@
       <c r="IU5" s="1"/>
     </row>
     <row r="6" spans="2:255" s="2" customFormat="1" ht="19">
-      <c r="B6" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5039,14 +4913,14 @@
       <c r="IU6" s="1"/>
     </row>
     <row r="7" spans="2:255" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5295,14 +5169,14 @@
       <c r="IU7" s="1"/>
     </row>
     <row r="8" spans="2:255" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -5551,16 +5425,16 @@
       <c r="IU8" s="1"/>
     </row>
     <row r="9" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B9" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="B9" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -5809,20 +5683,20 @@
       <c r="IU9" s="1"/>
     </row>
     <row r="10" spans="2:255" s="2" customFormat="1" ht="19">
-      <c r="B10" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="B10" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -6071,24 +5945,23 @@
       <c r="IU10" s="1"/>
     </row>
     <row r="11" spans="2:255" s="2" customFormat="1" ht="18.5" customHeight="1">
-      <c r="B11" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"-")</f>
+      <c r="B11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="83">
         <v>0</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="32">
         <f ca="1">COUNTA(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -6335,24 +6208,23 @@
       <c r="IU11" s="1"/>
     </row>
     <row r="12" spans="2:255" s="2" customFormat="1" ht="18.5" customHeight="1">
-      <c r="B12" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"-")</f>
+      <c r="B12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="83">
         <v>0</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="32">
         <f ca="1">COUNTA(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6599,24 +6471,23 @@
       <c r="IU12" s="1"/>
     </row>
     <row r="13" spans="2:255" s="2" customFormat="1" ht="18.25" customHeight="1">
-      <c r="B13" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"-")</f>
+      <c r="B13" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="83">
         <v>0</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="32">
         <f ca="1">COUNTA(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="66"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -6863,25 +6734,24 @@
       <c r="IU13" s="1"/>
     </row>
     <row r="14" spans="2:255" s="2" customFormat="1" ht="18.25" customHeight="1">
-      <c r="B14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"-")</f>
+      <c r="B14" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="83">
         <v>0</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="32">
         <f ca="1">COUNTA(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="66"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -7127,22 +6997,21 @@
       <c r="IU14" s="1"/>
     </row>
     <row r="15" spans="2:255" s="2" customFormat="1" ht="18.25" customHeight="1">
-      <c r="B15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"-")</f>
+      <c r="B15" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="83">
         <v>0</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="32">
         <f ca="1">COUNTA(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -7391,24 +7260,24 @@
       <c r="IU15" s="1"/>
     </row>
     <row r="16" spans="2:255" s="2" customFormat="1" ht="18.25" customHeight="1">
-      <c r="B16" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="56">
-        <f ca="1">SUM(C11:C15)</f>
+      <c r="B16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="45">
+        <f>SUM(C11:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="45">
         <f ca="1">SUM(D11:D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -7655,16 +7524,16 @@
       <c r="IU16" s="1"/>
     </row>
     <row r="17" spans="2:255" s="2" customFormat="1" ht="18.25" customHeight="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="66"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -7914,16 +7783,16 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -8170,16 +8039,16 @@
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -8426,16 +8295,16 @@
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -8682,16 +8551,16 @@
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -8938,13 +8807,13 @@
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="66"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -9194,11 +9063,11 @@
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -9451,7 +9320,7 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="33"/>
+  <phoneticPr fontId="30"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -9468,81 +9337,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="69" customWidth="1"/>
-    <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
-    <col min="244" max="16384" width="3.140625" style="12"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
+    <col min="8" max="243" width="3.140625" style="4" customWidth="1"/>
+    <col min="244" max="16384" width="3.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="G1" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="32">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="32">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="70"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="42">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="23"/>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="23"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="59"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="42">
+      <c r="A4" s="14"/>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="23"/>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="23"/>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{675A9CF3-72F0-034B-B261-64BEF42EF11B}"/>
   <phoneticPr fontId="3"/>
@@ -9571,253 +9440,253 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
-    <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
-    <col min="244" max="16384" width="3.140625" style="12"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="46" customWidth="1"/>
+    <col min="8" max="243" width="3.140625" style="4" customWidth="1"/>
+    <col min="244" max="16384" width="3.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="32">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="23">
-      <c r="A3" s="44">
+      <c r="G1" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="32">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="23">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="63">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="24"/>
-      <c r="J4" s="64"/>
+      <c r="B3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="63">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="19"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="A5" s="48">
+      <c r="A5" s="37">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="61" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1">
-      <c r="A7" s="48">
+      <c r="A7" s="37">
         <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="B7" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:10" ht="105">
-      <c r="A8" s="50"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1">
-      <c r="A9" s="48">
+      <c r="A9" s="37">
         <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="1:10" ht="84">
+      <c r="A10" s="39"/>
+      <c r="B10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:10" ht="84">
-      <c r="A10" s="50"/>
-      <c r="B10" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="23">
+      <c r="A12" s="33">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:10" ht="126">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" ht="23">
+      <c r="A14" s="33">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="1:10" ht="126">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="23">
+      <c r="A16" s="33">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="1:10" ht="23">
-      <c r="A12" s="44">
-        <v>1</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:10" ht="126">
-      <c r="A13" s="19"/>
-      <c r="B13" s="11" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="105">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-    </row>
-    <row r="14" spans="1:10" ht="23">
-      <c r="A14" s="44">
-        <v>2</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" ht="126">
-      <c r="A15" s="19"/>
-      <c r="B15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" ht="23">
-      <c r="A16" s="44">
-        <v>3</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-    </row>
-    <row r="17" spans="1:7" ht="105">
-      <c r="A17" s="19"/>
-      <c r="B17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F1" xr:uid="{472A2A42-BEB0-3F45-ABFC-18D6B241C59A}"/>
@@ -9847,136 +9716,136 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
-    <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
-    <col min="244" max="16384" width="3.140625" style="12"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="46" customWidth="1"/>
+    <col min="8" max="243" width="3.140625" style="4" customWidth="1"/>
+    <col min="244" max="16384" width="3.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="32">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="105">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="168">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="32">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="105">
-      <c r="A4" s="19"/>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A5" s="44">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="168">
-      <c r="A6" s="19"/>
-      <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A7" s="44">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
-      <c r="A8" s="19"/>
-      <c r="B8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="17"/>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="23"/>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="23"/>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="23"/>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="23"/>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="84">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="17"/>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="23"/>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="23"/>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="23"/>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="23"/>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{5EA061F3-57F5-C143-BFB0-D3656BC6B90A}"/>
   <phoneticPr fontId="3"/>
@@ -9997,7 +9866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C667D84-4B59-CC45-8230-4F79DB1549A9}">
   <dimension ref="A1:II16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
@@ -10005,234 +9874,234 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
-    <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
-    <col min="244" max="16384" width="3.140625" style="12"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="46" customWidth="1"/>
+    <col min="8" max="243" width="3.140625" style="4" customWidth="1"/>
+    <col min="244" max="16384" width="3.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="32">
-      <c r="A2" s="15" t="s">
+      <c r="G1" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="32">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="105">
+      <c r="A4" s="14"/>
+      <c r="B4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="126">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1" ht="32">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A3" s="27">
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="105">
-      <c r="A4" s="19"/>
-      <c r="B4" s="23" t="s">
+      <c r="B8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="105">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="126">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1" ht="32">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="105">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A5" s="27">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A15" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1" ht="126">
-      <c r="A6" s="19"/>
-      <c r="B6" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="126">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="32">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A8" s="27">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-    </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" ht="105">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A10" s="27">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="126">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="32">
-      <c r="A12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-    </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A13" s="27">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="105">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A15" s="27">
-        <v>2</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="126">
-      <c r="A16" s="19"/>
-      <c r="B16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{E7A23549-128E-964E-83C2-B22408A01551}"/>
@@ -10262,139 +10131,139 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
-    <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
-    <col min="244" max="16384" width="3.140625" style="12"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="46" customWidth="1"/>
+    <col min="8" max="243" width="3.140625" style="4" customWidth="1"/>
+    <col min="244" max="16384" width="3.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="32">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="84">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="32" customHeight="1">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="84">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="32" customHeight="1">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="32">
-      <c r="A2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="23">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="84">
-      <c r="A4" s="19"/>
-      <c r="B4" s="11" t="s">
+      <c r="B7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="84">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="32" customHeight="1">
-      <c r="A5" s="44">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="84">
-      <c r="A6" s="19"/>
-      <c r="B6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="32" customHeight="1">
-      <c r="A7" s="44">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="84">
-      <c r="A8" s="19"/>
-      <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="C8" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1">
-      <c r="B10" s="92"/>
+      <c r="B10" s="78"/>
     </row>
     <row r="11" spans="1:7" ht="14" customHeight="1">
-      <c r="B11" s="92"/>
+      <c r="B11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="14" customHeight="1">
-      <c r="B12" s="92"/>
+      <c r="B12" s="78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{8F3CD391-EF7C-2048-B22F-A72DEFFEAD81}"/>
@@ -10413,12 +10282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10574,6 +10437,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10584,15 +10453,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10610,6 +10470,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
   <ds:schemaRefs>

--- a/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00845F75-0D06-304E-A2A8-1B27C39CDB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C266D11B-B13C-9C4C-90AA-D07FCF917241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -643,188 +643,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[編集機能ボタン（ぼかし）]をタップ
-[編集画面]が表示され、画面下部に[スライダ]が表示されていること
-画像をなぞると、なぞった部分がぼかし画像になること
-[スライダ]を動かすと、ぼかし度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[編集機能ボタン（ぼかし）]をタップ
-[編集画面]が表示され、画面下部に[スライダ]が表示されていること
-画像をなぞると、なぞった部分がぼかし画像になること
-[スライダ]を動かすと、ぼかし度合いが変化すること
-[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[編集機能ボタン（モザイク）]をタップ
-[編集画面]が表示され、画面下部に[スライダ]が表示されていること
-画像をなぞると、なぞった部分がモザイク画像になること
-[スライダ]を動かすと、モザイク度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[編集機能ボタン（モザイク）]をタップ
-[編集画面]が表示され、画面下部に[スライダ]が表示されていること
-画像をなぞると、なぞった部分がモザイク画像になること
-[スライダ]を動かすと、モザイク度合いが変化すること
-[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[編集機能ボタン（モノクロ）]をタップ
 [編集画面]が表示され、画面下部に[スライダ]が表示されていること
 画像をなぞると、なぞった部分がモノクロ画像になること
@@ -1284,6 +1102,239 @@
     </rPh>
     <rPh sb="95" eb="97">
       <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（ぼかし）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がぼかし画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部がぼかし画像になること
+矩形をタップすると、ぼかしの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
+[スライダ]を動かすと、ぼかし度合いが変化すること
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>キリカワル</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>モドリ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（ぼかし）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がぼかし画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部がぼかし画像になること
+矩形をタップすると、ぼかしの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
+[スライダ]を動かすと、ぼかし度合いが変化すること
+[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>モドリ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（モザイク）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がモザイク画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部がモザイク画像になること
+矩形をタップすると、モザイクの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がモザイク画像になること
+[スライダ]を動かすと、モザイク度合いが変化すること
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（モザイク）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がモザイク画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部がモザイク画像になること
+矩形をタップすると、モザイクの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がモザイク画像になること
+[スライダ]を動かすと、モザイク度合いが変化すること
+[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1915,6 +1966,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1926,15 +1986,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3134,7 +3185,7 @@
   </sheetPr>
   <dimension ref="B2:IT61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3167,10 +3218,10 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:254" ht="31" customHeight="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="42"/>
@@ -3179,10 +3230,10 @@
       <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="85" t="s">
         <v>0</v>
       </c>
       <c r="IO5" s="2"/>
@@ -3193,8 +3244,8 @@
       <c r="IT5" s="2"/>
     </row>
     <row r="6" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
       <c r="IO6" s="2"/>
       <c r="IP6" s="2"/>
       <c r="IQ6" s="2"/>
@@ -3306,11 +3357,11 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:254" ht="31" customHeight="1">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3611,7 +3662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD45406-1D01-5D43-8A09-280ECE89980C}">
   <dimension ref="B2:IU23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3623,10 +3674,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="74"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3884,7 +3935,7 @@
       <c r="B3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="64"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4142,7 +4193,7 @@
       <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="64"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4400,7 +4451,7 @@
       <c r="B5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="64"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4658,7 +4709,7 @@
       <c r="B6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="64"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5425,10 +5476,10 @@
       <c r="IU8" s="1"/>
     </row>
     <row r="9" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="74"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5948,7 +5999,7 @@
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="79">
         <v>0</v>
       </c>
       <c r="D11" s="32">
@@ -6211,7 +6262,7 @@
       <c r="B12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="79">
         <v>0</v>
       </c>
       <c r="D12" s="32">
@@ -6474,7 +6525,7 @@
       <c r="B13" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="79">
         <v>0</v>
       </c>
       <c r="D13" s="32">
@@ -6737,7 +6788,7 @@
       <c r="B14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="79">
         <v>0</v>
       </c>
       <c r="D14" s="32">
@@ -7000,7 +7051,7 @@
       <c r="B15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="79">
         <v>0</v>
       </c>
       <c r="D15" s="32">
@@ -9534,7 +9585,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
@@ -9547,7 +9598,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="68"/>
@@ -9558,10 +9609,10 @@
     <row r="8" spans="1:10" ht="105">
       <c r="A8" s="39"/>
       <c r="B8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
@@ -9574,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="68"/>
@@ -9585,10 +9636,10 @@
     <row r="10" spans="1:10" ht="84">
       <c r="A10" s="39"/>
       <c r="B10" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
@@ -9600,7 +9651,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="65"/>
@@ -9613,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="66"/>
@@ -9624,10 +9675,10 @@
     <row r="13" spans="1:10" ht="126">
       <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
@@ -9639,7 +9690,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="66"/>
@@ -9650,15 +9701,15 @@
     <row r="15" spans="1:10" ht="126">
       <c r="A15" s="14"/>
       <c r="B15" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
       <c r="F15" s="41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G15" s="41"/>
     </row>
@@ -9667,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="66"/>
@@ -9678,10 +9729,10 @@
     <row r="17" spans="1:7" ht="105">
       <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
@@ -9808,7 +9859,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9834,7 +9885,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
@@ -9866,10 +9917,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C667D84-4B59-CC45-8230-4F79DB1549A9}">
   <dimension ref="A1:II16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9934,13 +9985,13 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="105">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="210">
       <c r="A4" s="14"/>
       <c r="B4" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
@@ -9960,13 +10011,13 @@
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="126">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="231">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -9999,13 +10050,13 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="105">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="210">
       <c r="A9" s="14"/>
       <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -10025,13 +10076,13 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="126">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="231">
       <c r="A11" s="14"/>
       <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
@@ -10070,7 +10121,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
@@ -10096,7 +10147,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -10223,7 +10274,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -10235,7 +10286,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="66"/>
@@ -10249,7 +10300,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
@@ -10438,18 +10489,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10471,18 +10522,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>